--- a/scripts/otoferlin/overview Otoferlin samples.xlsx
+++ b/scripts/otoferlin/overview Otoferlin samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mut" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridE4_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF2_1</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF2_1.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridF2_1</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridF2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF3_1</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF3_1.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridF3_1</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridF3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_1</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_1.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_1</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">one of them cut very small</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_2_orig</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_2_orig.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_2</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">right file name? </t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_3</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_3.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_3</t>
@@ -457,11 +457,11 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
@@ -818,8 +818,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -834,11 +834,11 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
@@ -1057,8 +1057,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/scripts/otoferlin/overview Otoferlin samples.xlsx
+++ b/scripts/otoferlin/overview Otoferlin samples.xlsx
@@ -203,7 +203,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridE4_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF2_1.mrc</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF2_1_rec.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridF2_1</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridF2_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF3_1.mrc</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridF3_1_rec.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridF3_1</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Bl6_NtoTDAWT1_blockH_GridF3_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_1.mrc</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_1_rec.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_1</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">one of them cut very small</t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_2_orig.mrc</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_2_orig_rec.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_2</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">right file name? </t>
   </si>
   <si>
-    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_3.mrc</t>
+    <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_3_rec.mrc</t>
   </si>
   <si>
     <t xml:space="preserve">W:\archiv\EM\EM_Tomography\Tomo 2024\Caro\Otof TDA conventional\Bl6_NtoTDAWT1_blockH\Gridbox 28870\Bl6_NtoTDAWT1_blockH_GridG2_3</t>
@@ -461,7 +461,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
@@ -838,7 +838,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>

--- a/scripts/otoferlin/overview Otoferlin samples.xlsx
+++ b/scripts/otoferlin/overview Otoferlin samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Mut" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t xml:space="preserve">File name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">corrected?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nachgebessert</t>
   </si>
   <si>
     <t xml:space="preserve">Otof_TDAKO1blockA_GridN5_1_rec.mrc</t>
@@ -261,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +294,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -353,12 +362,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,11 +383,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,13 +468,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
@@ -469,7 +482,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,100 +510,109 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -599,24 +621,27 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -625,183 +650,189 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -810,16 +841,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -832,13 +866,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
@@ -874,19 +908,22 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -895,24 +932,27 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -921,24 +961,27 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -947,82 +990,85 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -1031,34 +1077,37 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/scripts/otoferlin/overview Otoferlin samples.xlsx
+++ b/scripts/otoferlin/overview Otoferlin samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mut" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t xml:space="preserve">File name</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">nachgebessert</t>
   </si>
   <si>
+    <t xml:space="preserve">Pools korrigiert</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otof_TDAKO1blockA_GridN5_1_rec.mrc</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t xml:space="preserve">ja</t>
   </si>
   <si>
+    <t xml:space="preserve">PD-Pixel (94 und 96 Ausreißer?)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otof_TDAKO1blockA_GridN5_3_rec.mrc</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t xml:space="preserve">nur eine verwertbar, obwohl zwei Robbons vorhanden</t>
   </si>
   <si>
+    <t xml:space="preserve">PD ist hier unter ID 2 gespeichert (es gab urpsrünglich mal 2 PDS, die mit ID 1 ist gelöscht)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otof_TDAKO1blockA_GridN5_4_rec.mrc</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Otof TDA KO 1 Block A\Gridbox 29361 block A\Otof_TDAKO1blockA_GridN5_4</t>
   </si>
   <si>
+    <t xml:space="preserve">nicht nötig</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otof_TDAKO1blockA_GridN5_5_rec.mrc</t>
   </si>
   <si>
@@ -197,6 +209,12 @@
     <t xml:space="preserve">W:\archiv\EM\For Segmentation\2024\Otof TDA conventional\Otof TDA KO 2 block C\Gridbox 29361\Otof_TDAKO2blockC_GridF5_2</t>
   </si>
   <si>
+    <t xml:space="preserve">hat es den Vesikel gelöscht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools korrigiert? </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridE4_1_rec.mrc</t>
   </si>
   <si>
@@ -246,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">right file name? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hier könnte es einen Docked Vesikel ausreiser geben, außerdem gibt es einen übersehenen Vesikel</t>
   </si>
   <si>
     <t xml:space="preserve">Bl6_NtoTDAWT1_blockH_GridG2_3_rec.mrc</t>
@@ -468,10 +489,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="6:6 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,106 +534,121 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -621,27 +657,30 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -650,189 +689,198 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -841,13 +889,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -866,10 +920,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,19 +965,22 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -932,27 +989,30 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -961,27 +1021,30 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -990,85 +1053,97 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -1077,13 +1152,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scripts/otoferlin/overview Otoferlin samples.xlsx
+++ b/scripts/otoferlin/overview Otoferlin samples.xlsx
@@ -285,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,12 +315,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -383,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -392,7 +386,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,15 +394,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,14 +481,14 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="6:6 K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.43"/>
   </cols>
@@ -554,7 +544,7 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -804,7 +794,7 @@
       <c r="C10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -830,7 +820,7 @@
       <c r="C11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -922,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,7 +969,7 @@
       <c r="C2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -1165,22 +1155,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="4"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="4"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
